--- a/WebDataExtraction/OutPut/SmartPhones.xlsx
+++ b/WebDataExtraction/OutPut/SmartPhones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hari.krishnamorri\Desktop\test\WebDataExtractionPOC_BOT4\WebDataExtraction\OutPut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D0767E-EF7C-4C0D-8F8C-E8B28B10C7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220DF214-32C1-44FA-B879-1999CB4A67E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>ProductName</t>
   </si>
@@ -174,12 +174,6 @@
     <t>Unlocked Smartphones Blackview A80 Pro - Bundle Android 9.0 Pie 4GB+64GB ROM, 6.5" HD+ Waterdrop Screen,AT&amp;T T-Mobile 13MP Quad Rear Camera, 4680mAh Battery 4G Dual SIM (Gradient)¡­</t>
   </si>
   <si>
-    <t>$499.99
-$499
-.
-99</t>
-  </si>
-  <si>
     <t>Genie StealthDrive Connect Model 7155-TKV Smartphone-Controlled Ultra-Quiet Strong Belt Drive Garage Door Opener, Wi-Fi &amp; Battery, Backup - Works with Amazon Alexa &amp; Google Assistant</t>
   </si>
   <si>
@@ -233,7 +227,15 @@
 $132.00</t>
   </si>
   <si>
-    <t>Jitterbug Smart2 No-Contract Easy-to-use 5.Smartphone for Seniors by GreatCall,Black</t>
+    <t>TCL 10L, Unlocked Android Smartphone with 6.53" FHD + LCD Display, 48MP Quad Rear Camera System, 64GB+6GB RAM, 4000mAh Battery</t>
+  </si>
+  <si>
+    <t>$399.99
+$399
+.
+99 
+$499.99
+$499.99</t>
   </si>
 </sst>
 </file>
@@ -575,215 +577,217 @@
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
